--- a/data/trans_bre/P25_7-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,07</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,98</t>
+          <t>13,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>11,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>88,9%</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>62,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>77,73%</t>
+          <t>71,31%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>66,46%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>64,46%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 21,37</t>
+          <t>4,86; 22,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 17,98</t>
+          <t>5,45; 23,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 19,47</t>
+          <t>2,59; 21,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,93; 153,67</t>
+          <t>5,34; 26,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,83; 112,26</t>
+          <t>18,92; 146,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,37; 151,79</t>
+          <t>22,2; 164,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>10,14; 168,11</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18,44; 159,44</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,46</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,49</t>
+          <t>12,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>7,59</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>108,86%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>140,1%</t>
+          <t>43,94%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>67,07%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28,63%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 19,9</t>
+          <t>-3,3; 18,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,09; 26,52</t>
+          <t>-1,43; 20,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 28,11</t>
+          <t>3,05; 22,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 118,52</t>
+          <t>-4,28; 22,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,12; 190,97</t>
+          <t>-11,67; 91,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,68; 255,79</t>
+          <t>-6,67; 120,02</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13,46; 172,59</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-15,05; 103,9</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,2</t>
+          <t>16,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,44</t>
+          <t>15,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>-16,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>215,24%</t>
+          <t>-8,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>73,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>66,27%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-37,78%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-19,82%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,24; 45,29</t>
+          <t>-8,84; 40,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 33,37</t>
+          <t>-13,11; 38,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 20,11</t>
+          <t>-57,39; 9,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,53; 686,87</t>
+          <t>-48,12; 20,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 292,63</t>
+          <t>-27,59; 421,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 113,23</t>
+          <t>-33,71; 341,72</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-78,91; 50,06</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-74,67; 105,83</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,79</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,52</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,07</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,39%</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,83%</t>
+          <t>58,47%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>42,37%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35,5%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 19,48</t>
+          <t>4,17; 17,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 20,01</t>
+          <t>5,35; 18,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 19,13</t>
+          <t>0,58; 15,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,4; 124,89</t>
+          <t>-0,26; 17,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,4; 127,3</t>
+          <t>16,14; 91,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,91; 134,35</t>
+          <t>20,92; 106,68</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 91,37</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 80,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_7-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_7-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>13,07</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,74</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>11,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,94</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>62,55%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>71,31%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>66,46%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>64,46%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.58376614746775</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13.48935813723416</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>11.21491151253835</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>14.50872867472617</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.5538423736803909</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.7004290073161286</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.6498715569617256</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.62259518754938</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,86; 22,39</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,45; 23,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 21,3</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 26,92</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>18,92; 146,3</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>22,2; 164,67</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>10,14; 168,11</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>18,44; 159,44</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.438879968569974</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>5.068850403018747</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.280171668215524</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5.15646931042428</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1361514164606793</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.2034264907148411</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.06968523583747392</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1760913686252246</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>21.06780435257398</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.81279454942573</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>21.04333943238523</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>26.92762480737709</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>1.397228679507768</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.563647301891028</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.667771816017742</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.602382484648679</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,77</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,42</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,59</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>27,37%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>43,94%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>67,07%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>28,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-3,3; 18,1</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 20,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 22,94</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 22,21</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,67; 91,8</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 120,02</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>13,46; 172,59</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-15,05; 103,9</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.891928112503686</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.91649476642179</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.72238257134657</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.89151575567053</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2272261202921132</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.5083450778860329</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7086726357774373</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2644983842881924</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>16,45</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>15,86</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-16,86</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-8,36</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>73,27%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>66,27%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-37,78%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-19,82%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.372762527599082</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5139157586811403</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.776327307375701</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.079768860995729</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1692847936507841</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.01758598549906882</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.1232752113544424</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1781943404112189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,84; 40,2</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,11; 38,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-57,39; 9,41</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-48,12; 20,05</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-27,59; 421,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-33,71; 341,72</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-78,91; 50,06</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-74,67; 105,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.38082309721971</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>20.80532748830079</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23.20531487366162</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.00417896170484</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.9356472894246076</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.327891926236222</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.835140340479014</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9966616051107235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,85</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>12,27</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,46</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>47,61%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>58,47%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>42,37%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>35,5%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>17.21077843209315</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>13.89551660785472</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-12.88473483297847</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-7.898056687370492</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.7563185615773972</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.5496449587479346</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2990276276629366</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.185421502665153</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 17,47</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 18,76</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,58; 15,44</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 17,77</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>16,14; 91,6</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>20,92; 106,68</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 91,37</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 80,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.46382742111863</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.08829263046056</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-52.61012539957716</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-48.03965594786931</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.2905836107740913</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3799739162862831</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.765323030614859</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7358084409901552</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>41.10131511678637</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>36.609777322444</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>15.18486316260549</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>21.26012947255309</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>4.089435356572515</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.982100467600788</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.7436552112670244</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.072492198095744</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>9.759121711328216</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>12.42421227974843</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.207750361541189</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.939202042658712</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.42057198376673</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.5964544942659821</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4526917969677635</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3355130357767948</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.987423941015747</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>5.845303487455218</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.132546555305744</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.7731344432949373</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.09475636322964942</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.2303581625937348</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.02419384740720957</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.0391169190923502</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.79232583920788</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>19.30052599862982</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.69111356916456</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>17.32029635853203</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.8602939764605284</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.079183396261882</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.9543009075373329</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7843661474291866</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
